--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,25 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adion\OneDrive\Desktop\Licenta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0696EF-C5DA-4E2F-8B55-9ECAC97DD619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-11745" yWindow="2070" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Timeline  Licenta-2023</t>
+  </si>
+  <si>
+    <t>lista piese</t>
+  </si>
+  <si>
+    <t>piese necesare</t>
+  </si>
+  <si>
+    <t>asamblare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proba </t>
+  </si>
+  <si>
+    <t>prezentare afco</t>
+  </si>
+  <si>
+    <t>lucrare scrisa final</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,23 +95,346 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Timeline Style 1" pivot="0" table="0" count="8" xr9:uid="{D7BA78D0-291A-4560-84C1-613C150D2ABD}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{A0A4C193-F2C1-4fcb-8827-314CF55A85BB}">
+      <x15:dxfs count="6">
+        <dxf>
+          <font>
+            <sz val="9"/>
+            <color theme="1" tint="0.499984740745262"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="9"/>
+            <color theme="1" tint="0.499984740745262"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="9"/>
+            <color theme="1" tint="0.499984740745262"/>
+          </font>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="10"/>
+            <color theme="1" tint="0.499984740745262"/>
+          </font>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="0" tint="-0.14999847407452621"/>
+              <bgColor theme="0" tint="-0.14999847407452621"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="0"/>
+              <bgColor theme="0"/>
+            </patternFill>
+          </fill>
+        </dxf>
+      </x15:dxfs>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1">
+        <x15:timelineStyle name="Timeline Style 1">
+          <x15:timelineStyleElements>
+            <x15:timelineStyleElement type="selectionLabel" dxfId="3"/>
+            <x15:timelineStyleElement type="timeLevel" dxfId="2"/>
+            <x15:timelineStyleElement type="periodLabel1" dxfId="1"/>
+            <x15:timelineStyleElement type="periodLabel2" dxfId="0"/>
+            <x15:timelineStyleElement type="selectedTimeBlock" dxfId="5"/>
+            <x15:timelineStyleElement type="unselectedTimeBlock" dxfId="4"/>
+          </x15:timelineStyleElements>
+        </x15:timelineStyle>
+      </x15:timelineStyles>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Horizontal"/>
+      <sheetName val="©"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="A5">
+            <v>1970</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>1970</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1980</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>1980</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1992</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>1992</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1998</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>0.7</v>
+          </cell>
+          <cell r="D8">
+            <v>1998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2010</v>
+          </cell>
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2020</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.8</v>
+          </cell>
+          <cell r="C14">
+            <v>1978</v>
+          </cell>
+          <cell r="D14">
+            <v>0.3</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>To edit Data Label options: Right-click &gt; Format Data Labels</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="C15">
+            <v>1970</v>
+          </cell>
+          <cell r="D15">
+            <v>0.3</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>The Axis is a Bubble Chart series with labels that you can define</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0.5</v>
+          </cell>
+          <cell r="C16">
+            <v>1992</v>
+          </cell>
+          <cell r="D16">
+            <v>0.3</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>Axis labels do not necessarily need to be equally spaced</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>0.2</v>
+          </cell>
+          <cell r="C17">
+            <v>1985</v>
+          </cell>
+          <cell r="D17">
+            <v>0.3</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>Event leader lines are Y Error Bars</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>0.2</v>
+          </cell>
+          <cell r="C18">
+            <v>1998</v>
+          </cell>
+          <cell r="D18">
+            <v>0.3</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>The Axis bubble size can be changed</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0.7</v>
+          </cell>
+          <cell r="C19">
+            <v>2002</v>
+          </cell>
+          <cell r="D19">
+            <v>0.3</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>The bubble size is determined by the value in the table</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>0.4</v>
+          </cell>
+          <cell r="C20">
+            <v>2010</v>
+          </cell>
+          <cell r="D20">
+            <v>0.3</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>Axis labels can be formatted individually</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>0.75</v>
+          </cell>
+          <cell r="C21">
+            <v>2014</v>
+          </cell>
+          <cell r="D21">
+            <v>0.3</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>Event labels and markers can be formatted individually</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>0.2</v>
+          </cell>
+          <cell r="C22">
+            <v>2022.7965434633813</v>
+          </cell>
+          <cell r="D22">
+            <v>0.3</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>The Y value for this marker is =YEAR(TODAY())</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +699,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>44853</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44881</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44916</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44586</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44682</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adion\OneDrive\Desktop\Licenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40744\Adrian Oncioiu\Desktop\Licenta\Licenta-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0696EF-C5DA-4E2F-8B55-9ECAC97DD619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2AE236-0E4B-47CB-8ACB-62109F2B414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11745" yWindow="2070" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,22 +41,22 @@
     <t>Timeline  Licenta-2023</t>
   </si>
   <si>
-    <t>lista piese</t>
-  </si>
-  <si>
-    <t>piese necesare</t>
-  </si>
-  <si>
-    <t>asamblare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proba </t>
-  </si>
-  <si>
-    <t>prezentare afco</t>
-  </si>
-  <si>
-    <t>lucrare scrisa final</t>
+    <t>Software conturat</t>
+  </si>
+  <si>
+    <t>Asamblare Robot</t>
+  </si>
+  <si>
+    <t>Proba Sistem</t>
+  </si>
+  <si>
+    <t>Lucrare scrisa final</t>
+  </si>
+  <si>
+    <t>Cuprins</t>
+  </si>
+  <si>
+    <t>Conturare Lucrare</t>
   </si>
 </sst>
 </file>
@@ -152,6 +149,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{A0A4C193-F2C1-4fcb-8827-314CF55A85BB}">
       <x15:dxfs count="6">
         <dxf>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="0" tint="-0.14999847407452621"/>
+              <bgColor theme="0" tint="-0.14999847407452621"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="0"/>
+              <bgColor theme="0"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
           <font>
             <sz val="9"/>
             <color theme="1" tint="0.499984740745262"/>
@@ -175,266 +188,24 @@
             <color theme="1" tint="0.499984740745262"/>
           </font>
         </dxf>
-        <dxf>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="0" tint="-0.14999847407452621"/>
-              <bgColor theme="0" tint="-0.14999847407452621"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="0"/>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-        </dxf>
       </x15:dxfs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1">
         <x15:timelineStyle name="Timeline Style 1">
           <x15:timelineStyleElements>
-            <x15:timelineStyleElement type="selectionLabel" dxfId="3"/>
-            <x15:timelineStyleElement type="timeLevel" dxfId="2"/>
-            <x15:timelineStyleElement type="periodLabel1" dxfId="1"/>
-            <x15:timelineStyleElement type="periodLabel2" dxfId="0"/>
-            <x15:timelineStyleElement type="selectedTimeBlock" dxfId="5"/>
-            <x15:timelineStyleElement type="unselectedTimeBlock" dxfId="4"/>
+            <x15:timelineStyleElement type="selectionLabel" dxfId="5"/>
+            <x15:timelineStyleElement type="timeLevel" dxfId="4"/>
+            <x15:timelineStyleElement type="periodLabel1" dxfId="3"/>
+            <x15:timelineStyleElement type="periodLabel2" dxfId="2"/>
+            <x15:timelineStyleElement type="selectedTimeBlock" dxfId="1"/>
+            <x15:timelineStyleElement type="unselectedTimeBlock" dxfId="0"/>
           </x15:timelineStyleElements>
         </x15:timelineStyle>
       </x15:timelineStyles>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Horizontal"/>
-      <sheetName val="©"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="A5">
-            <v>1970</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-          <cell r="D5">
-            <v>1970</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1980</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>1</v>
-          </cell>
-          <cell r="D6">
-            <v>1980</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1992</v>
-          </cell>
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-          <cell r="C7">
-            <v>1</v>
-          </cell>
-          <cell r="D7">
-            <v>1992</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1998</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>0.7</v>
-          </cell>
-          <cell r="D8">
-            <v>1998</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2010</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>1</v>
-          </cell>
-          <cell r="D9">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2020</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>1</v>
-          </cell>
-          <cell r="D10">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0.8</v>
-          </cell>
-          <cell r="C14">
-            <v>1978</v>
-          </cell>
-          <cell r="D14">
-            <v>0.3</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>To edit Data Label options: Right-click &gt; Format Data Labels</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0.28000000000000003</v>
-          </cell>
-          <cell r="C15">
-            <v>1970</v>
-          </cell>
-          <cell r="D15">
-            <v>0.3</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>The Axis is a Bubble Chart series with labels that you can define</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0.5</v>
-          </cell>
-          <cell r="C16">
-            <v>1992</v>
-          </cell>
-          <cell r="D16">
-            <v>0.3</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>Axis labels do not necessarily need to be equally spaced</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.2</v>
-          </cell>
-          <cell r="C17">
-            <v>1985</v>
-          </cell>
-          <cell r="D17">
-            <v>0.3</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>Event leader lines are Y Error Bars</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.2</v>
-          </cell>
-          <cell r="C18">
-            <v>1998</v>
-          </cell>
-          <cell r="D18">
-            <v>0.3</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>The Axis bubble size can be changed</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.7</v>
-          </cell>
-          <cell r="C19">
-            <v>2002</v>
-          </cell>
-          <cell r="D19">
-            <v>0.3</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>The bubble size is determined by the value in the table</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0.4</v>
-          </cell>
-          <cell r="C20">
-            <v>2010</v>
-          </cell>
-          <cell r="D20">
-            <v>0.3</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>Axis labels can be formatted individually</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.75</v>
-          </cell>
-          <cell r="C21">
-            <v>2014</v>
-          </cell>
-          <cell r="D21">
-            <v>0.3</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>Event labels and markers can be formatted individually</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0.2</v>
-          </cell>
-          <cell r="C22">
-            <v>2022.7965434633813</v>
-          </cell>
-          <cell r="D22">
-            <v>0.3</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>The Y value for this marker is =YEAR(TODAY())</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,23 +471,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -726,44 +498,43 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>44853</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44881</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" s="1">
+        <v>44911</v>
+      </c>
+      <c r="C3" s="1">
         <v>44916</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D3" s="1">
         <v>44586</v>
       </c>
-      <c r="F4" s="1">
-        <v>44682</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="H3" s="1">
         <v>44713</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
         <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -771,5 +542,6 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>